--- a/Vehicle 5 - Class 3 BEV loaded/Input_Definition_File.xlsx
+++ b/Vehicle 5 - Class 3 BEV loaded/Input_Definition_File.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kshitij\Desktop\Thesis docs\Code\Total Simulink  Model files\Vehicle 5 - Class 3 BEV loaded\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563EA173-944A-45EB-84D9-8538E35D8910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D03D0FB-B3A1-44E3-9ED4-0530CE0C6A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="750" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="255" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -575,7 +575,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
